--- a/birth_years.xlsx
+++ b/birth_years.xlsx
@@ -41,9 +41,6 @@
     <t>Kevin</t>
   </si>
   <si>
-    <t>Andrews</t>
-  </si>
-  <si>
     <t>Anthony</t>
   </si>
   <si>
@@ -53,7 +50,10 @@
     <t>Randal</t>
   </si>
   <si>
-    <t>Little Baby Humphrey</t>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Humphrey</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1993</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1986</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1982</v>
